--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>12.31369475290109</v>
+        <v>13.40891262743</v>
       </c>
       <c r="R2">
-        <v>12.31369475290109</v>
+        <v>80.45347576457998</v>
       </c>
       <c r="S2">
-        <v>0.01167337509557631</v>
+        <v>0.01108557715828347</v>
       </c>
       <c r="T2">
-        <v>0.01167337509557631</v>
+        <v>0.008982065016584476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>456.4558592327352</v>
+        <v>530.9612852411467</v>
       </c>
       <c r="R3">
-        <v>456.4558592327352</v>
+        <v>4778.651567170319</v>
       </c>
       <c r="S3">
-        <v>0.4327198754169162</v>
+        <v>0.4389626854277013</v>
       </c>
       <c r="T3">
-        <v>0.4327198754169162</v>
+        <v>0.533502855656906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>17.594434148377</v>
+        <v>0.8281495356844443</v>
       </c>
       <c r="R4">
-        <v>17.594434148377</v>
+        <v>7.453345821159998</v>
       </c>
       <c r="S4">
-        <v>0.01667951281316541</v>
+        <v>0.0006846577221814671</v>
       </c>
       <c r="T4">
-        <v>0.01667951281316541</v>
+        <v>0.000832113667191254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>295.2835095517805</v>
+        <v>23.78909776325223</v>
       </c>
       <c r="R5">
-        <v>295.2835095517805</v>
+        <v>214.10187986927</v>
       </c>
       <c r="S5">
-        <v>0.2799285864808387</v>
+        <v>0.01966720837907539</v>
       </c>
       <c r="T5">
-        <v>0.2799285864808387</v>
+        <v>0.02390296984540457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.555426551986694</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>0.555426551986694</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.03333654093683805</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.03333654093683805</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>0.5539746848248133</v>
+        <v>331.716664898495</v>
       </c>
       <c r="R6">
-        <v>0.5539746848248133</v>
+        <v>1990.29998939097</v>
       </c>
       <c r="S6">
-        <v>0.0005251676624426759</v>
+        <v>0.2742407819033962</v>
       </c>
       <c r="T6">
-        <v>0.0005251676624426759</v>
+        <v>0.2222030028824127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H7">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I7">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J7">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>20.53526547710784</v>
+        <v>0.116809821676</v>
       </c>
       <c r="R7">
-        <v>20.53526547710784</v>
+        <v>0.700858930056</v>
       </c>
       <c r="S7">
-        <v>0.0194674191144004</v>
+        <v>9.657041752854024E-05</v>
       </c>
       <c r="T7">
-        <v>0.0194674191144004</v>
+        <v>7.824597281088876E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>0.7915472413120954</v>
+        <v>4.625393182069335</v>
       </c>
       <c r="R8">
-        <v>0.7915472413120954</v>
+        <v>41.628538638624</v>
       </c>
       <c r="S8">
-        <v>0.0007503863007102563</v>
+        <v>0.00382396055757248</v>
       </c>
       <c r="T8">
-        <v>0.0007503863007102563</v>
+        <v>0.004647533708694479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>13.2843628513183</v>
+        <v>0.00721430605688889</v>
       </c>
       <c r="R9">
-        <v>13.2843628513183</v>
+        <v>0.064928754512</v>
       </c>
       <c r="S9">
-        <v>0.01259356785928472</v>
+        <v>5.964297677166816E-06</v>
       </c>
       <c r="T9">
-        <v>0.01259356785928472</v>
+        <v>7.248839020692636E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>0.7111805349517633</v>
+        <v>0.2072353176404445</v>
       </c>
       <c r="R10">
-        <v>0.7111805349517633</v>
+        <v>1.865117858764</v>
       </c>
       <c r="S10">
-        <v>0.000674198712227184</v>
+        <v>0.0001713280686850775</v>
       </c>
       <c r="T10">
-        <v>0.000674198712227184</v>
+        <v>0.0002082272979732031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>26.36272285980799</v>
+        <v>2.889702211534</v>
       </c>
       <c r="R11">
-        <v>26.36272285980799</v>
+        <v>17.338213269204</v>
       </c>
       <c r="S11">
-        <v>0.02499184514954451</v>
+        <v>0.002389009289604289</v>
       </c>
       <c r="T11">
-        <v>0.02499184514954451</v>
+        <v>0.001935689631497067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H12">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I12">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J12">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>1.01617096581579</v>
+        <v>0.5565535905859998</v>
       </c>
       <c r="R12">
-        <v>1.01617096581579</v>
+        <v>3.339321543516</v>
       </c>
       <c r="S12">
-        <v>0.0009633294541759742</v>
+        <v>0.0004601206632176646</v>
       </c>
       <c r="T12">
-        <v>0.0009633294541759742</v>
+        <v>0.0003728117763725869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H13">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I13">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J13">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9174069079012</v>
+        <v>39.565288</v>
       </c>
       <c r="N13">
-        <v>23.9174069079012</v>
+        <v>118.695864</v>
       </c>
       <c r="O13">
-        <v>0.3777706836214788</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P13">
-        <v>0.3777706836214788</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q13">
-        <v>17.05417330050297</v>
+        <v>22.03820831516267</v>
       </c>
       <c r="R13">
-        <v>17.05417330050297</v>
+        <v>198.343874836464</v>
       </c>
       <c r="S13">
-        <v>0.01616734585976567</v>
+        <v>0.01821969204335733</v>
       </c>
       <c r="T13">
-        <v>0.01616734585976567</v>
+        <v>0.0221436993553328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.997386032128483</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N14">
-        <v>0.997386032128483</v>
+        <v>0.185132</v>
       </c>
       <c r="O14">
-        <v>0.01575351394248427</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P14">
-        <v>0.01575351394248427</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q14">
-        <v>3.038791487917058</v>
+        <v>0.0343733761591111</v>
       </c>
       <c r="R14">
-        <v>3.038791487917058</v>
+        <v>0.309360385432</v>
       </c>
       <c r="S14">
-        <v>0.002880772472238105</v>
+        <v>2.841757002898457E-05</v>
       </c>
       <c r="T14">
-        <v>0.002880772472238105</v>
+        <v>3.4537912366108E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.9720630093316</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N15">
-        <v>36.9720630093316</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O15">
-        <v>0.5839663794538508</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P15">
-        <v>0.5839663794538508</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q15">
-        <v>112.6448403570756</v>
+        <v>0.9873960808615556</v>
       </c>
       <c r="R15">
-        <v>112.6448403570756</v>
+        <v>8.886564727754001</v>
       </c>
       <c r="S15">
-        <v>0.1067872397729897</v>
+        <v>0.0008163119370161336</v>
       </c>
       <c r="T15">
-        <v>0.1067872397729897</v>
+        <v>0.0009921224832142523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4251159554415</v>
+        <v>24.7183095</v>
       </c>
       <c r="N16">
-        <v>1.4251159554415</v>
+        <v>49.436619</v>
       </c>
       <c r="O16">
-        <v>0.02250942298218628</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P16">
-        <v>0.02250942298218628</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q16">
-        <v>4.341980030990193</v>
+        <v>13.768312616849</v>
       </c>
       <c r="R16">
-        <v>4.341980030990193</v>
+        <v>82.609875701094</v>
       </c>
       <c r="S16">
-        <v>0.004116194414134644</v>
+        <v>0.01138270463044257</v>
       </c>
       <c r="T16">
-        <v>0.004116194414134644</v>
+        <v>0.009222811910953642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.58338</v>
+      </c>
+      <c r="I17">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J17">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.998366</v>
+      </c>
+      <c r="O17">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P17">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q17">
+        <v>0.8604231261799999</v>
+      </c>
+      <c r="R17">
+        <v>5.16253875708</v>
+      </c>
+      <c r="S17">
+        <v>0.0007113393322086255</v>
+      </c>
+      <c r="T17">
+        <v>0.0005763611618523073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.58338</v>
+      </c>
+      <c r="I18">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J18">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>39.565288</v>
+      </c>
+      <c r="N18">
+        <v>118.695864</v>
+      </c>
+      <c r="O18">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P18">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q18">
+        <v>34.07072457114667</v>
+      </c>
+      <c r="R18">
+        <v>306.63652114032</v>
+      </c>
+      <c r="S18">
+        <v>0.02816735827627366</v>
+      </c>
+      <c r="T18">
+        <v>0.03423381206550925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.58338</v>
+      </c>
+      <c r="I19">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J19">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.185132</v>
+      </c>
+      <c r="O19">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P19">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q19">
+        <v>0.05314070068444444</v>
+      </c>
+      <c r="R19">
+        <v>0.47826630616</v>
+      </c>
+      <c r="S19">
+        <v>4.393311777403714E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.339507108109394E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.58338</v>
+      </c>
+      <c r="I20">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J20">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N20">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P20">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q20">
+        <v>1.526498862002223</v>
+      </c>
+      <c r="R20">
+        <v>13.73848975802</v>
+      </c>
+      <c r="S20">
+        <v>0.001262005457634256</v>
+      </c>
+      <c r="T20">
+        <v>0.00153380580594559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.58338</v>
+      </c>
+      <c r="I21">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J21">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.7183095</v>
+      </c>
+      <c r="N21">
+        <v>49.436619</v>
+      </c>
+      <c r="O21">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P21">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q21">
+        <v>21.28559546537</v>
+      </c>
+      <c r="R21">
+        <v>127.71357279222</v>
+      </c>
+      <c r="S21">
+        <v>0.01759748291659899</v>
+      </c>
+      <c r="T21">
+        <v>0.0142583226320353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.0670265</v>
+      </c>
+      <c r="H22">
+        <v>6.134053</v>
+      </c>
+      <c r="I22">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J22">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.998366</v>
+      </c>
+      <c r="O22">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P22">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q22">
+        <v>3.0645207393495</v>
+      </c>
+      <c r="R22">
+        <v>12.258082957398</v>
+      </c>
+      <c r="S22">
+        <v>0.002533537360794182</v>
+      </c>
+      <c r="T22">
+        <v>0.001368528793264495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.0670265</v>
+      </c>
+      <c r="H23">
+        <v>6.134053</v>
+      </c>
+      <c r="I23">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J23">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.565288</v>
+      </c>
+      <c r="N23">
+        <v>118.695864</v>
+      </c>
+      <c r="O23">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P23">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q23">
+        <v>121.347786776132</v>
+      </c>
+      <c r="R23">
+        <v>728.086720656792</v>
+      </c>
+      <c r="S23">
+        <v>0.1003220984930505</v>
+      </c>
+      <c r="T23">
+        <v>0.08128576423208092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.0670265</v>
+      </c>
+      <c r="H24">
+        <v>6.134053</v>
+      </c>
+      <c r="I24">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J24">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.185132</v>
+      </c>
+      <c r="O24">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P24">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q24">
+        <v>0.1892682499993333</v>
+      </c>
+      <c r="R24">
+        <v>1.135609499996</v>
+      </c>
+      <c r="S24">
+        <v>0.0001564741189146694</v>
+      </c>
+      <c r="T24">
+        <v>0.0001267828178394961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N17">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O17">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P17">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q17">
-        <v>72.87049365397188</v>
-      </c>
-      <c r="R17">
-        <v>72.87049365397188</v>
-      </c>
-      <c r="S17">
-        <v>0.06908118342158967</v>
-      </c>
-      <c r="T17">
-        <v>0.06908118342158967</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.0670265</v>
+      </c>
+      <c r="H25">
+        <v>6.134053</v>
+      </c>
+      <c r="I25">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J25">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>5.436845290256167</v>
+      </c>
+      <c r="R25">
+        <v>32.62107174153701</v>
+      </c>
+      <c r="S25">
+        <v>0.004494813982119033</v>
+      </c>
+      <c r="T25">
+        <v>0.003641913348163245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>75.81171027170174</v>
+      </c>
+      <c r="R26">
+        <v>303.246841086807</v>
+      </c>
+      <c r="S26">
+        <v>0.06267596687886379</v>
+      </c>
+      <c r="T26">
+        <v>0.03385537811549366</v>
       </c>
     </row>
   </sheetData>
